--- a/biology/Zoologie/Actinia_equina/Actinia_equina.xlsx
+++ b/biology/Zoologie/Actinia_equina/Actinia_equina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinie rouge, tomate de mer, actinie chevaline, actinie commune, cubasseau
 Actinia equina, l'actinie rouge, aussi appelée tomate de mer, actinie chevaline, actinie commune ou cubasseau, est une espèce d’anémone de mer très courante notamment en Méditerranée, près des côtes. Elle vit dans la zone intertidale (très réduite en Méditerranée), accrochée aux rochers. Lorsqu'il est émergé, l'animal rétracte son corps et ses tentacules en une boule compacte d'un rouge brillant, ce qui lui vaut son nom de « tomate de mer ». 
@@ -513,10 +525,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'actinie chevaline atteint 6 cm de diamètre, avec 192 tentacules pointus pouvant atteindre 2 cm.Son disque basal (ou pied) mesure 5 à 7 cm, sa hauteur peut atteindre 7 cm et son disque oral fait 3 cm de diamètre. 
-Cette anémone est rouge carmin avec un disque oral plus clair que la colonne. Toutefois, sa couleur peut varier du rouge au vert en passant par le brun[1]. Ses tentacules latéraux sont plus clairs que la colonne sont très urticants pour les petits animaux dont elle se nourrit.Les tentacules constituent un faible danger pour l'homme, la peau des mains étant trop épaisse pour permettre au venin d'être efficace. Cependant le venin reste sur les doigts et peut créer des brûlures si on se touche le visage ou autre zone de peau sensible (dos des mains, yeux, etc.) après avoir manipulé cette anémone. Les personnes sensibles sont davantage prédisposées aux réactions allergiques causées par ce venin.
+Cette anémone est rouge carmin avec un disque oral plus clair que la colonne. Toutefois, sa couleur peut varier du rouge au vert en passant par le brun. Ses tentacules latéraux sont plus clairs que la colonne sont très urticants pour les petits animaux dont elle se nourrit.Les tentacules constituent un faible danger pour l'homme, la peau des mains étant trop épaisse pour permettre au venin d'être efficace. Cependant le venin reste sur les doigts et peut créer des brûlures si on se touche le visage ou autre zone de peau sensible (dos des mains, yeux, etc.) après avoir manipulé cette anémone. Les personnes sensibles sont davantage prédisposées aux réactions allergiques causées par ce venin.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Actinia equina est vivipare, c'est-à-dire que les petits naissent déjà formés. Les individus mâles libèrent les spermatozoïdes directement dans l'eau, ces derniers allant ensuite pénétrer le corps d'un individu femelle pour la fécondation. 
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit sur les substrats durs, donc sur les fonds rocheux près de la surface. Il lui arrive de rester plusieurs heures émergée, sa forme repliée lui permettant de se survivre hors de l'eau en la protégeant du dessèchement.
 L'actinie rouge est essentiellement présente en mer Méditerranée mais peut aussi être observée sur les côtes de l'océan Atlantique, de la Manche et de la mer du Nord.
